--- a/results/many_equal/average_case_results.xlsx
+++ b/results/many_equal/average_case_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://her169626-my.sharepoint.com/personal/f_kretke_otto-hahn-gymnasium_de/Documents/Schule/Facharbeit/facharbeit/results/many_equal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{0D44BF96-6243-45BC-B966-B4A33FA27920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E29FD0BA-8E34-4BBF-9915-F82FA56D6210}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{0D44BF96-6243-45BC-B966-B4A33FA27920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{592C1CE0-5449-4FA5-9164-9788AF750E88}"/>
   <bookViews>
-    <workbookView xWindow="9390" yWindow="3480" windowWidth="33270" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average_case_results" sheetId="1" r:id="rId1"/>
@@ -605,19 +605,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -643,19 +637,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -686,19 +674,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -797,19 +779,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -908,19 +884,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1019,19 +989,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1130,19 +1094,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1241,19 +1199,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1352,7 +1304,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
@@ -1360,13 +1312,7 @@
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1476,10 +1422,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1489,13 +1436,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Größe</a:t>
+                  <a:t>Größe der Eingabe in log2(n)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> der Eingabe in log2(n)</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1512,10 +1454,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1535,9 +1478,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1551,8 +1494,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1581,9 +1525,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1598,10 +1542,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1629,10 +1574,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1662,8 +1608,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1703,8 +1650,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1728,28 +1676,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1792,19 +1729,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1830,19 +1761,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1873,19 +1798,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1984,19 +1903,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2095,19 +2008,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2206,19 +2113,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2317,19 +2218,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2428,19 +2323,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2550,10 +2439,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2563,13 +2453,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Größe der Eingabe in</a:t>
+                  <a:t>Größe der Eingabe in log2(n)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> log2(n)</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2586,10 +2471,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2609,9 +2495,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2625,8 +2511,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2655,9 +2542,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2672,10 +2559,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2703,10 +2591,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2736,8 +2625,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2777,8 +2667,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2802,28 +2693,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2926,33 +2806,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2960,34 +2842,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -2996,8 +2870,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3016,6 +2891,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3024,35 +2907,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3064,29 +2957,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3104,18 +2999,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3125,20 +3023,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3152,14 +3050,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3173,8 +3071,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3188,6 +3087,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -3199,9 +3104,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3216,100 +3121,93 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3317,14 +3215,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3336,19 +3234,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3364,6 +3255,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3372,8 +3264,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3383,7 +3276,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3391,9 +3284,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3404,8 +3297,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3417,38 +3311,46 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3456,34 +3358,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -3492,8 +3386,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3512,6 +3407,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3520,35 +3423,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3560,29 +3473,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3600,18 +3515,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3621,20 +3539,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3648,14 +3566,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3669,8 +3587,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3684,6 +3603,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -3695,9 +3620,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3712,100 +3637,93 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3813,14 +3731,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3832,19 +3750,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3860,6 +3771,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3868,8 +3780,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3879,7 +3792,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3887,9 +3800,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3900,8 +3813,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3913,6 +3827,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>

--- a/results/many_equal/average_case_results.xlsx
+++ b/results/many_equal/average_case_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://her169626-my.sharepoint.com/personal/f_kretke_otto-hahn-gymnasium_de/Documents/Schule/Facharbeit/facharbeit/results/many_equal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{0D44BF96-6243-45BC-B966-B4A33FA27920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{592C1CE0-5449-4FA5-9164-9788AF750E88}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{0D44BF96-6243-45BC-B966-B4A33FA27920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06722CF5-1213-4BE9-96B7-7F4171778DE5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22695" yWindow="3240" windowWidth="24885" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average_case_results" sheetId="1" r:id="rId1"/>
@@ -4218,10 +4218,13 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A5" sqref="A5:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1">

--- a/results/many_equal/average_case_results.xlsx
+++ b/results/many_equal/average_case_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://her169626-my.sharepoint.com/personal/f_kretke_otto-hahn-gymnasium_de/Documents/Schule/Facharbeit/facharbeit/results/many_equal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{0D44BF96-6243-45BC-B966-B4A33FA27920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06722CF5-1213-4BE9-96B7-7F4171778DE5}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{0D44BF96-6243-45BC-B966-B4A33FA27920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{224DA4D7-1E51-49F6-8EB5-38713DA410DC}"/>
   <bookViews>
-    <workbookView xWindow="22695" yWindow="3240" windowWidth="24885" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4950" yWindow="3285" windowWidth="31875" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average_case_results" sheetId="1" r:id="rId1"/>
@@ -3914,10 +3914,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -4218,12 +4214,18 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:J6"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">

--- a/results/many_equal/average_case_results.xlsx
+++ b/results/many_equal/average_case_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://her169626-my.sharepoint.com/personal/f_kretke_otto-hahn-gymnasium_de/Documents/Schule/Facharbeit/facharbeit/results/many_equal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{0D44BF96-6243-45BC-B966-B4A33FA27920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{224DA4D7-1E51-49F6-8EB5-38713DA410DC}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{E670004F-678E-479E-99E0-C0591A4E7BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8F0789D-8236-4BE8-B17A-07E0035B6EB3}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="3285" windowWidth="31875" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8100" yWindow="2520" windowWidth="31875" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average_case_results" sheetId="1" r:id="rId1"/>
@@ -619,7 +619,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Alle Average-Cases </a:t>
+              <a:t>Average-Cases</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -728,31 +728,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6340</c:v>
+                  <c:v>6900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12870</c:v>
+                  <c:v>13720</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27250</c:v>
+                  <c:v>28380</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62470</c:v>
+                  <c:v>69960</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136330</c:v>
+                  <c:v>154600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>333810</c:v>
+                  <c:v>432150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>702540</c:v>
+                  <c:v>1347540</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2033710</c:v>
+                  <c:v>4532630</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3954970</c:v>
+                  <c:v>16446350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -760,7 +760,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6CFE-4FE5-A6AF-A6BAF624629A}"/>
+              <c16:uniqueId val="{00000000-D90B-45DA-A98E-B79B12D37D84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -833,31 +833,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6620</c:v>
+                  <c:v>7470</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12960</c:v>
+                  <c:v>13820</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28520</c:v>
+                  <c:v>28740</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61950</c:v>
+                  <c:v>62330</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>135230</c:v>
+                  <c:v>149580</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>316700</c:v>
+                  <c:v>398580</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>689540</c:v>
+                  <c:v>1185890</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1756130</c:v>
+                  <c:v>3916180</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3652070</c:v>
+                  <c:v>14205750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,7 +865,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6CFE-4FE5-A6AF-A6BAF624629A}"/>
+              <c16:uniqueId val="{00000001-D90B-45DA-A98E-B79B12D37D84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -938,31 +938,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4910</c:v>
+                  <c:v>5900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7840</c:v>
+                  <c:v>9900</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18280</c:v>
+                  <c:v>17640</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32970</c:v>
+                  <c:v>32910</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78070</c:v>
+                  <c:v>61960</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>147600</c:v>
+                  <c:v>123790</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>338340</c:v>
+                  <c:v>233340</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>660710</c:v>
+                  <c:v>463230</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1500310</c:v>
+                  <c:v>916310</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -970,7 +970,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6CFE-4FE5-A6AF-A6BAF624629A}"/>
+              <c16:uniqueId val="{00000002-D90B-45DA-A98E-B79B12D37D84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1043,31 +1043,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8070</c:v>
+                  <c:v>8160</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17680</c:v>
+                  <c:v>18020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46720</c:v>
+                  <c:v>39220</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90340</c:v>
+                  <c:v>84860</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>192170</c:v>
+                  <c:v>180460</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>410520</c:v>
+                  <c:v>378480</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>891630</c:v>
+                  <c:v>757480</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1855790</c:v>
+                  <c:v>1508130</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4008190</c:v>
+                  <c:v>3012890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1075,7 +1075,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6CFE-4FE5-A6AF-A6BAF624629A}"/>
+              <c16:uniqueId val="{00000003-D90B-45DA-A98E-B79B12D37D84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1148,31 +1148,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>71740</c:v>
+                  <c:v>75050</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>284590</c:v>
+                  <c:v>291030</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1178390</c:v>
+                  <c:v>1165580</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4623850</c:v>
+                  <c:v>4668220</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18689580</c:v>
+                  <c:v>18541010</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74689470</c:v>
+                  <c:v>74027310</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>301373550</c:v>
+                  <c:v>294371060</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1205930460</c:v>
+                  <c:v>1183581160</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4842500730</c:v>
+                  <c:v>4725895550</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1180,7 +1180,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6CFE-4FE5-A6AF-A6BAF624629A}"/>
+              <c16:uniqueId val="{00000004-D90B-45DA-A98E-B79B12D37D84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1253,31 +1253,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4390</c:v>
+                  <c:v>5480</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7600</c:v>
+                  <c:v>9780</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17590</c:v>
+                  <c:v>17600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32520</c:v>
+                  <c:v>33050</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77110</c:v>
+                  <c:v>63930</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>155960</c:v>
+                  <c:v>123440</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>362700</c:v>
+                  <c:v>241910</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>664580</c:v>
+                  <c:v>477680</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1502150</c:v>
+                  <c:v>944370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1285,7 +1285,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6CFE-4FE5-A6AF-A6BAF624629A}"/>
+              <c16:uniqueId val="{00000005-D90B-45DA-A98E-B79B12D37D84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1360,31 +1360,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4900</c:v>
+                  <c:v>5620</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9310</c:v>
+                  <c:v>10970</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20610</c:v>
+                  <c:v>21310</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40760</c:v>
+                  <c:v>42120</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95110</c:v>
+                  <c:v>83760</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>185670</c:v>
+                  <c:v>164110</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>412360</c:v>
+                  <c:v>339750</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>825810</c:v>
+                  <c:v>691640</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1829910</c:v>
+                  <c:v>1415520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1392,7 +1392,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-6CFE-4FE5-A6AF-A6BAF624629A}"/>
+              <c16:uniqueId val="{00000006-D90B-45DA-A98E-B79B12D37D84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1405,11 +1405,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1428808624"/>
-        <c:axId val="1428807792"/>
+        <c:axId val="1030914031"/>
+        <c:axId val="1030912783"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1428808624"/>
+        <c:axId val="1030914031"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1507,7 +1507,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1428807792"/>
+        <c:crossAx val="1030912783"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1515,7 +1515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1428807792"/>
+        <c:axId val="1030912783"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1621,7 +1621,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1428808624"/>
+        <c:crossAx val="1030914031"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1743,7 +1743,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Alle Average-Cases ohne InsertionSort</a:t>
+              <a:t>Average-Cases ohne InsertionSort</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1852,31 +1852,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6340</c:v>
+                  <c:v>6900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12870</c:v>
+                  <c:v>13720</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27250</c:v>
+                  <c:v>28380</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62470</c:v>
+                  <c:v>69960</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136330</c:v>
+                  <c:v>154600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>333810</c:v>
+                  <c:v>432150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>702540</c:v>
+                  <c:v>1347540</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2033710</c:v>
+                  <c:v>4532630</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3954970</c:v>
+                  <c:v>16446350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1884,7 +1884,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-20CE-405E-8087-CA0229F1CD81}"/>
+              <c16:uniqueId val="{00000000-690D-4E82-BCFE-B1DC21D85CCB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1957,31 +1957,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6620</c:v>
+                  <c:v>7470</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12960</c:v>
+                  <c:v>13820</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28520</c:v>
+                  <c:v>28740</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61950</c:v>
+                  <c:v>62330</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>135230</c:v>
+                  <c:v>149580</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>316700</c:v>
+                  <c:v>398580</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>689540</c:v>
+                  <c:v>1185890</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1756130</c:v>
+                  <c:v>3916180</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3652070</c:v>
+                  <c:v>14205750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1989,7 +1989,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-20CE-405E-8087-CA0229F1CD81}"/>
+              <c16:uniqueId val="{00000001-690D-4E82-BCFE-B1DC21D85CCB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2062,31 +2062,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4910</c:v>
+                  <c:v>5900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7840</c:v>
+                  <c:v>9900</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18280</c:v>
+                  <c:v>17640</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32970</c:v>
+                  <c:v>32910</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78070</c:v>
+                  <c:v>61960</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>147600</c:v>
+                  <c:v>123790</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>338340</c:v>
+                  <c:v>233340</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>660710</c:v>
+                  <c:v>463230</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1500310</c:v>
+                  <c:v>916310</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2094,7 +2094,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-20CE-405E-8087-CA0229F1CD81}"/>
+              <c16:uniqueId val="{00000002-690D-4E82-BCFE-B1DC21D85CCB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2167,31 +2167,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8070</c:v>
+                  <c:v>8160</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17680</c:v>
+                  <c:v>18020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46720</c:v>
+                  <c:v>39220</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90340</c:v>
+                  <c:v>84860</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>192170</c:v>
+                  <c:v>180460</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>410520</c:v>
+                  <c:v>378480</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>891630</c:v>
+                  <c:v>757480</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1855790</c:v>
+                  <c:v>1508130</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4008190</c:v>
+                  <c:v>3012890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2199,7 +2199,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-20CE-405E-8087-CA0229F1CD81}"/>
+              <c16:uniqueId val="{00000003-690D-4E82-BCFE-B1DC21D85CCB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2272,31 +2272,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4390</c:v>
+                  <c:v>5480</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7600</c:v>
+                  <c:v>9780</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17590</c:v>
+                  <c:v>17600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32520</c:v>
+                  <c:v>33050</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77110</c:v>
+                  <c:v>63930</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>155960</c:v>
+                  <c:v>123440</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>362700</c:v>
+                  <c:v>241910</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>664580</c:v>
+                  <c:v>477680</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1502150</c:v>
+                  <c:v>944370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2304,7 +2304,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-20CE-405E-8087-CA0229F1CD81}"/>
+              <c16:uniqueId val="{00000004-690D-4E82-BCFE-B1DC21D85CCB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2377,31 +2377,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4900</c:v>
+                  <c:v>5620</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9310</c:v>
+                  <c:v>10970</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20610</c:v>
+                  <c:v>21310</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40760</c:v>
+                  <c:v>42120</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95110</c:v>
+                  <c:v>83760</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>185670</c:v>
+                  <c:v>164110</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>412360</c:v>
+                  <c:v>339750</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>825810</c:v>
+                  <c:v>691640</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1829910</c:v>
+                  <c:v>1415520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2409,7 +2409,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-20CE-405E-8087-CA0229F1CD81}"/>
+              <c16:uniqueId val="{00000005-690D-4E82-BCFE-B1DC21D85CCB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2422,71 +2422,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="652817759"/>
-        <c:axId val="652819007"/>
+        <c:axId val="710797791"/>
+        <c:axId val="710797375"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="652817759"/>
+        <c:axId val="710797791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Größe der Eingabe in log2(n)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2524,7 +2469,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652819007"/>
+        <c:crossAx val="710797375"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2532,7 +2477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="652819007"/>
+        <c:axId val="710797375"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2552,61 +2497,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Zeit in ns</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2638,7 +2528,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652817759"/>
+        <c:crossAx val="710797791"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3841,23 +3731,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>204786</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3A4C483-6B0D-9F41-7479-B302D4F636E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74DE8220-E018-78E5-6206-D730EE0F9E3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3878,22 +3768,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>633412</xdr:colOff>
+      <xdr:colOff>600074</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAFAE582-9745-3255-E2C0-BAE9DA427D14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5436347-22F6-4B4F-7B11-0C0C5693F3F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3912,6 +3802,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4214,7 +4108,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4262,31 +4156,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6340</v>
+        <v>6900</v>
       </c>
       <c r="C2">
-        <v>12870</v>
+        <v>13720</v>
       </c>
       <c r="D2">
-        <v>27250</v>
+        <v>28380</v>
       </c>
       <c r="E2">
-        <v>62470</v>
+        <v>69960</v>
       </c>
       <c r="F2">
-        <v>136330</v>
+        <v>154600</v>
       </c>
       <c r="G2">
-        <v>333810</v>
+        <v>432150</v>
       </c>
       <c r="H2">
-        <v>702540</v>
+        <v>1347540</v>
       </c>
       <c r="I2">
-        <v>2033710</v>
+        <v>4532630</v>
       </c>
       <c r="J2">
-        <v>3954970</v>
+        <v>16446350</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4294,31 +4188,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6620</v>
+        <v>7470</v>
       </c>
       <c r="C3">
-        <v>12960</v>
+        <v>13820</v>
       </c>
       <c r="D3">
-        <v>28520</v>
+        <v>28740</v>
       </c>
       <c r="E3">
-        <v>61950</v>
+        <v>62330</v>
       </c>
       <c r="F3">
-        <v>135230</v>
+        <v>149580</v>
       </c>
       <c r="G3">
-        <v>316700</v>
+        <v>398580</v>
       </c>
       <c r="H3">
-        <v>689540</v>
+        <v>1185890</v>
       </c>
       <c r="I3">
-        <v>1756130</v>
+        <v>3916180</v>
       </c>
       <c r="J3">
-        <v>3652070</v>
+        <v>14205750</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4326,31 +4220,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4910</v>
+        <v>5900</v>
       </c>
       <c r="C4">
-        <v>7840</v>
+        <v>9900</v>
       </c>
       <c r="D4">
-        <v>18280</v>
+        <v>17640</v>
       </c>
       <c r="E4">
-        <v>32970</v>
+        <v>32910</v>
       </c>
       <c r="F4">
-        <v>78070</v>
+        <v>61960</v>
       </c>
       <c r="G4">
-        <v>147600</v>
+        <v>123790</v>
       </c>
       <c r="H4">
-        <v>338340</v>
+        <v>233340</v>
       </c>
       <c r="I4">
-        <v>660710</v>
+        <v>463230</v>
       </c>
       <c r="J4">
-        <v>1500310</v>
+        <v>916310</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4358,31 +4252,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8070</v>
+        <v>8160</v>
       </c>
       <c r="C5">
-        <v>17680</v>
+        <v>18020</v>
       </c>
       <c r="D5">
-        <v>46720</v>
+        <v>39220</v>
       </c>
       <c r="E5">
-        <v>90340</v>
+        <v>84860</v>
       </c>
       <c r="F5">
-        <v>192170</v>
+        <v>180460</v>
       </c>
       <c r="G5">
-        <v>410520</v>
+        <v>378480</v>
       </c>
       <c r="H5">
-        <v>891630</v>
+        <v>757480</v>
       </c>
       <c r="I5">
-        <v>1855790</v>
+        <v>1508130</v>
       </c>
       <c r="J5">
-        <v>4008190</v>
+        <v>3012890</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -4390,31 +4284,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>71740</v>
+        <v>75050</v>
       </c>
       <c r="C6">
-        <v>284590</v>
+        <v>291030</v>
       </c>
       <c r="D6">
-        <v>1178390</v>
+        <v>1165580</v>
       </c>
       <c r="E6">
-        <v>4623850</v>
+        <v>4668220</v>
       </c>
       <c r="F6">
-        <v>18689580</v>
+        <v>18541010</v>
       </c>
       <c r="G6">
-        <v>74689470</v>
+        <v>74027310</v>
       </c>
       <c r="H6">
-        <v>301373550</v>
+        <v>294371060</v>
       </c>
       <c r="I6">
-        <v>1205930460</v>
+        <v>1183581160</v>
       </c>
       <c r="J6">
-        <v>4842500730</v>
+        <v>4725895550</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4422,31 +4316,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4390</v>
+        <v>5480</v>
       </c>
       <c r="C7">
-        <v>7600</v>
+        <v>9780</v>
       </c>
       <c r="D7">
-        <v>17590</v>
+        <v>17600</v>
       </c>
       <c r="E7">
-        <v>32520</v>
+        <v>33050</v>
       </c>
       <c r="F7">
-        <v>77110</v>
+        <v>63930</v>
       </c>
       <c r="G7">
-        <v>155960</v>
+        <v>123440</v>
       </c>
       <c r="H7">
-        <v>362700</v>
+        <v>241910</v>
       </c>
       <c r="I7">
-        <v>664580</v>
+        <v>477680</v>
       </c>
       <c r="J7">
-        <v>1502150</v>
+        <v>944370</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -4454,31 +4348,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4900</v>
+        <v>5620</v>
       </c>
       <c r="C8">
-        <v>9310</v>
+        <v>10970</v>
       </c>
       <c r="D8">
-        <v>20610</v>
+        <v>21310</v>
       </c>
       <c r="E8">
-        <v>40760</v>
+        <v>42120</v>
       </c>
       <c r="F8">
-        <v>95110</v>
+        <v>83760</v>
       </c>
       <c r="G8">
-        <v>185670</v>
+        <v>164110</v>
       </c>
       <c r="H8">
-        <v>412360</v>
+        <v>339750</v>
       </c>
       <c r="I8">
-        <v>825810</v>
+        <v>691640</v>
       </c>
       <c r="J8">
-        <v>1829910</v>
+        <v>1415520</v>
       </c>
     </row>
   </sheetData>
